--- a/TRAVAIL/Documentation/Fiche de suivi journalier_JonathanL.xlsx
+++ b/TRAVAIL/Documentation/Fiche de suivi journalier_JonathanL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\AmdWeb_Projet_2\TRAVAIL\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5765AB-96AB-4941-8262-DE42D4DE953A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF06DC1D-27FC-4BFC-90EE-D6E54B4D9B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D4E26560-581B-4258-B282-30B8775B2CF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4E26560-581B-4258-B282-30B8775B2CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Jour</t>
   </si>
@@ -172,13 +172,16 @@
 Modification noms des fonctions utilisateur_entity
 Découpage du codes en vues (header, footer, index, inscription)</t>
   </si>
+  <si>
+    <t>Déploiement du site sur le serveur OK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -203,12 +206,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -223,19 +232,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -246,7 +252,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,374 +577,401 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A67681-3564-4126-92EA-BD5020130C0C}">
   <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" style="1"/>
     <col min="6" max="6" width="121" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>44946</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" s="2">
         <v>44947</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" s="2">
         <v>44948</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" s="2">
         <v>44949</v>
       </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="2">
         <v>44950</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" s="2">
         <v>44951</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="2">
         <v>44952</v>
       </c>
+      <c r="E9" s="9"/>
       <c r="F9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>44953</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
       <c r="B12" s="2">
         <v>44954</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="2">
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
       <c r="B14" s="2">
         <v>44956</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
       <c r="B15" s="2">
         <v>44957</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
       <c r="B16" s="2">
         <v>44958</v>
       </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
       <c r="B17" s="2">
         <v>44959</v>
       </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2">
         <v>44960</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
       <c r="B19" s="2">
         <v>44961</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
       <c r="B20" s="2">
         <v>44962</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
       <c r="B21" s="2">
         <v>44963</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="9"/>
+      <c r="F21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
       <c r="B22" s="2">
         <v>44964</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
       <c r="B23" s="2">
         <v>44965</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
       <c r="B24" s="2">
         <v>44966</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2">
         <v>44967</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="9"/>
+      <c r="F25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
       <c r="B26" s="2">
         <v>44968</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
       <c r="B27" s="2">
         <v>44969</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
       <c r="B28" s="2">
         <v>44970</v>
       </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
       <c r="B29" s="2">
         <v>44971</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
       <c r="B30" s="2">
         <v>44972</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
       <c r="B31" s="2">
         <v>44973</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="2">
         <v>44974</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
       <c r="B33" s="2">
         <v>44975</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
       <c r="B34" s="2">
         <v>44976</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
       <c r="B35" s="2">
         <v>44977</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
       <c r="B36" s="2">
         <v>44978</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
       <c r="B37" s="2">
         <v>44979</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
       <c r="B38" s="2">
         <v>44980</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="2">
         <v>44981</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
       <c r="B40" s="2">
         <v>44982</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="E40" s="9"/>
+      <c r="F40" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
       <c r="B41" s="2">
         <v>44983</v>
       </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
       <c r="B42" s="2">
         <v>44984</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
       <c r="B43" s="2">
         <v>44985</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
       <c r="B44" s="2">
         <v>44986</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A39:A44"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TRAVAIL/Documentation/Fiche de suivi journalier_JonathanL.xlsx
+++ b/TRAVAIL/Documentation/Fiche de suivi journalier_JonathanL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\AmdWeb_Projet_2\TRAVAIL\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF06DC1D-27FC-4BFC-90EE-D6E54B4D9B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC8E395-3B73-41E1-9281-BDC0DE252F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4E26560-581B-4258-B282-30B8775B2CF1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Jour</t>
   </si>
@@ -153,14 +153,6 @@
  Migration du projet vers la branche main</t>
   </si>
   <si>
-    <t xml:space="preserve">Création tableau dans TRAVAIL/Documentation/Test d'intégration.xlsx
-Intégration des fonctions liées à photos de la branche Ahmed : Séparation galerie/ajouterPhoto pour retrouver la galerie, ajout du bouton ""Ajouter une photo"" pour accéder à la fonction"
-Modification galerie.tpl
-Intégration des fonctions liées à "offres" de la branche Ahmed : Pas possible de modifier l'offre car les champs du formulaire sont vides, Pas possible d'ajouter une offre, pb de requête SQL, J'ai rendu les boutons ""Modifier"",""supprimer"" et ""ajouter catégorie"" disponibles pour l'admin (dispo pour tous par défaut)"
-Déploiement du site : pb avec la BDD
-</t>
-  </si>
-  <si>
     <t>Création tableau dans TRAVAIL/Documentation/Fiche suivi journalier JonathanL.xlsx</t>
   </si>
   <si>
@@ -173,7 +165,22 @@
 Découpage du codes en vues (header, footer, index, inscription)</t>
   </si>
   <si>
-    <t>Déploiement du site sur le serveur OK</t>
+    <t>Déploiement du site sur le serveur OK
+Correction du bug de l'affichage des erreurs
+Ajout des champs 'Dernière connexion' et 'Date création' dans l'administration des utilisateurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création tableau dans TRAVAIL/Documentation/Test d'intégration.xlsx
+Intégration des fonctions liées à photos de la branche Ahmed : Séparation galerie/ajouterPhoto pour retrouver la galerie, ajout du bouton ""Ajouter une photo"" pour accéder à la fonction"
+Modification galerie.tpl
+Intégration des fonctions liées à "offres" de la branche Ahmed : Pas possible de modifier l'offre car les champs du formulaire sont vides, Pas possible d'ajouter une offre, pb de requête SQL, J'ai rendu les boutons "Modifier","supprimer" et "ajouter catégorie" disponibles pour l'admin (dispo pour tous par défaut)
+Déploiement du site : pb avec la BDD
+</t>
+  </si>
+  <si>
+    <t>Ajout du rôle modérateur
+Ajout du bouton aide pour les utilisateurs suivant leur rôle -&gt; affichage de l'aide dans une fenêtre modale
+Génération doc développeur dia Doxygen</t>
   </si>
 </sst>
 </file>
@@ -206,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -252,13 +265,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A67681-3564-4126-92EA-BD5020130C0C}">
   <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F48" sqref="F47:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +627,7 @@
       <c r="B3" s="2">
         <v>44946</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
@@ -633,9 +649,9 @@
       <c r="B6" s="2">
         <v>44949</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -649,7 +665,7 @@
       <c r="B8" s="2">
         <v>44951</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
@@ -659,7 +675,7 @@
       <c r="B9" s="2">
         <v>44952</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="7"/>
       <c r="F9" t="s">
         <v>11</v>
       </c>
@@ -668,18 +684,18 @@
       <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>44953</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
@@ -707,7 +723,7 @@
       <c r="B15" s="2">
         <v>44957</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
@@ -717,7 +733,7 @@
       <c r="B16" s="2">
         <v>44958</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
@@ -727,7 +743,7 @@
       <c r="B17" s="2">
         <v>44959</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
@@ -740,9 +756,9 @@
       <c r="B18" s="2">
         <v>44960</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -762,7 +778,7 @@
       <c r="B21" s="2">
         <v>44963</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="4" t="s">
         <v>18</v>
       </c>
@@ -778,7 +794,7 @@
       <c r="B23" s="2">
         <v>44965</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="4" t="s">
         <v>19</v>
       </c>
@@ -788,7 +804,7 @@
       <c r="B24" s="2">
         <v>44966</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
@@ -800,7 +816,7 @@
       <c r="B25" s="2">
         <v>44967</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="4" t="s">
         <v>21</v>
       </c>
@@ -816,7 +832,7 @@
       <c r="B27" s="2">
         <v>44969</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
         <v>22</v>
       </c>
@@ -826,7 +842,7 @@
       <c r="B28" s="2">
         <v>44970</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="1" t="s">
         <v>23</v>
       </c>
@@ -836,7 +852,7 @@
       <c r="B29" s="2">
         <v>44971</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
         <v>24</v>
       </c>
@@ -860,7 +876,7 @@
       <c r="B32" s="2">
         <v>44974</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
         <v>25</v>
       </c>
@@ -888,7 +904,7 @@
       <c r="B36" s="2">
         <v>44978</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="4" t="s">
         <v>26</v>
       </c>
@@ -898,7 +914,7 @@
       <c r="B37" s="2">
         <v>44979</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="4" t="s">
         <v>27</v>
       </c>
@@ -916,7 +932,7 @@
       <c r="B39" s="2">
         <v>44981</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="4" t="s">
         <v>28</v>
       </c>
@@ -926,9 +942,9 @@
       <c r="B40" s="2">
         <v>44982</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -936,25 +952,29 @@
       <c r="B41" s="2">
         <v>44983</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="2">
         <v>44984</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="7"/>
+      <c r="F42" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="2">
         <v>44985</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">

--- a/TRAVAIL/Documentation/Fiche de suivi journalier_JonathanL.xlsx
+++ b/TRAVAIL/Documentation/Fiche de suivi journalier_JonathanL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\AmdWeb_Projet_2\TRAVAIL\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC8E395-3B73-41E1-9281-BDC0DE252F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5312072D-3CF0-41A6-948D-0131E15931C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4E26560-581B-4258-B282-30B8775B2CF1}"/>
+    <workbookView minimized="1" xWindow="6312" yWindow="2676" windowWidth="15120" windowHeight="9156" xr2:uid="{D4E26560-581B-4258-B282-30B8775B2CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
   <si>
     <t>Ajout du rôle modérateur
 Ajout du bouton aide pour les utilisateurs suivant leur rôle -&gt; affichage de l'aide dans une fenêtre modale
-Génération doc développeur dia Doxygen</t>
+Génération doc développeur via Doxygen</t>
   </si>
 </sst>
 </file>
@@ -268,13 +268,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,20 +593,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A67681-3564-4126-92EA-BD5020130C0C}">
   <dimension ref="A2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F48" sqref="F47:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5546875" style="1"/>
     <col min="6" max="6" width="121" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5703125" style="1"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -620,8 +620,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -632,20 +632,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
       <c r="B4" s="2">
         <v>44947</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
       <c r="B5" s="2">
         <v>44948</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
       <c r="B6" s="2">
         <v>44949</v>
       </c>
@@ -654,14 +654,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
       <c r="B7" s="2">
         <v>44950</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
       <c r="B8" s="2">
         <v>44951</v>
       </c>
@@ -670,8 +670,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
       <c r="B9" s="2">
         <v>44952</v>
       </c>
@@ -680,11 +680,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>44953</v>
       </c>
       <c r="E10" s="7"/>
@@ -692,34 +692,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
       <c r="B12" s="2">
         <v>44954</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
       <c r="B13" s="2">
         <v>44955</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
       <c r="B14" s="2">
         <v>44956</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
       <c r="B15" s="2">
         <v>44957</v>
       </c>
@@ -728,8 +728,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
       <c r="B16" s="2">
         <v>44958</v>
       </c>
@@ -738,8 +738,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
       <c r="B17" s="2">
         <v>44959</v>
       </c>
@@ -749,8 +749,8 @@
       </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="2">
@@ -761,20 +761,20 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
       <c r="B19" s="2">
         <v>44961</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
       <c r="B20" s="2">
         <v>44962</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
       <c r="B21" s="2">
         <v>44963</v>
       </c>
@@ -783,14 +783,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
       <c r="B22" s="2">
         <v>44964</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
       <c r="B23" s="2">
         <v>44965</v>
       </c>
@@ -799,8 +799,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
       <c r="B24" s="2">
         <v>44966</v>
       </c>
@@ -809,8 +809,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2">
@@ -821,14 +821,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
       <c r="B26" s="2">
         <v>44968</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>44969</v>
       </c>
@@ -837,8 +837,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
       <c r="B28" s="2">
         <v>44970</v>
       </c>
@@ -847,8 +847,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
       <c r="B29" s="2">
         <v>44971</v>
       </c>
@@ -857,20 +857,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
       <c r="B30" s="2">
         <v>44972</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
       <c r="B31" s="2">
         <v>44973</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="2">
@@ -881,26 +881,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
       <c r="B33" s="2">
         <v>44975</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
       <c r="B34" s="2">
         <v>44976</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
       <c r="B35" s="2">
         <v>44977</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
       <c r="B36" s="2">
         <v>44978</v>
       </c>
@@ -909,8 +909,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
       <c r="B37" s="2">
         <v>44979</v>
       </c>
@@ -919,14 +919,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
       <c r="B38" s="2">
         <v>44980</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="2">
@@ -937,8 +937,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+    <row r="40" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
       <c r="B40" s="2">
         <v>44982</v>
       </c>
@@ -947,8 +947,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
       <c r="B41" s="2">
         <v>44983</v>
       </c>
@@ -957,8 +957,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
       <c r="B42" s="2">
         <v>44984</v>
       </c>
@@ -967,18 +967,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
       <c r="B43" s="2">
         <v>44985</v>
       </c>
-      <c r="E43" s="10"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
       <c r="B44" s="2">
         <v>44986</v>
       </c>
